--- a/least_squares/w_stats.xlsx
+++ b/least_squares/w_stats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="18">
   <si>
     <t>Row</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="305">
+  <borders count="321">
     <border>
       <left/>
       <right/>
@@ -399,11 +399,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -709,6 +725,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,13 +760,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="289" t="s">
+      <c r="B1" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="289" t="s">
+      <c r="C1" s="305" t="s">
         <v>17</v>
       </c>
     </row>
@@ -743,10 +775,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B2">
-        <v>-0.74390000000000001</v>
+        <v>-0.74109999999999998</v>
       </c>
       <c r="C2">
-        <v>0.027199999999999998</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="3">
@@ -754,10 +786,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B3">
-        <v>-0.78920000000000001</v>
+        <v>-0.78759999999999997</v>
       </c>
       <c r="C3">
-        <v>0.026599999999999999</v>
+        <v>0.028500000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -765,10 +797,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B4">
-        <v>0.12559999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="C4">
-        <v>0.012500000000000001</v>
+        <v>0.010999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -776,10 +808,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B5">
-        <v>-0.14649999999999999</v>
+        <v>-0.1522</v>
       </c>
       <c r="C5">
-        <v>0.050700000000000002</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="6">
@@ -787,10 +819,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B6">
-        <v>0.40799999999999997</v>
+        <v>0.41510000000000002</v>
       </c>
       <c r="C6">
-        <v>0.082500000000000004</v>
+        <v>0.076200000000000004</v>
       </c>
     </row>
     <row r="7">
@@ -798,10 +830,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B7">
-        <v>-0.39650000000000002</v>
+        <v>-0.39950000000000002</v>
       </c>
       <c r="C7">
-        <v>0.078799999999999995</v>
+        <v>0.076200000000000004</v>
       </c>
     </row>
     <row r="8">
@@ -809,10 +841,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B8">
-        <v>0.17169999999999999</v>
+        <v>0.17369999999999999</v>
       </c>
       <c r="C8">
-        <v>0.098199999999999996</v>
+        <v>0.092200000000000004</v>
       </c>
     </row>
     <row r="9">
@@ -820,10 +852,10 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.66159999999999997</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="C9">
-        <v>0.0178</v>
+        <v>0.0167</v>
       </c>
     </row>
     <row r="10">
@@ -831,10 +863,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B10">
-        <v>-0.7419</v>
+        <v>-0.74160000000000004</v>
       </c>
       <c r="C10">
-        <v>0.020500000000000001</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="11">
@@ -842,10 +874,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B11">
-        <v>-0.78749999999999998</v>
+        <v>-0.78759999999999997</v>
       </c>
       <c r="C11">
-        <v>0.0206</v>
+        <v>0.021899999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +885,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B12">
-        <v>0.12659999999999999</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="C12">
-        <v>0.0099000000000000008</v>
+        <v>0.0085000000000000006</v>
       </c>
     </row>
     <row r="13">
@@ -864,10 +896,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B13">
-        <v>-0.15679999999999999</v>
+        <v>-0.156</v>
       </c>
       <c r="C13">
-        <v>0.0378</v>
+        <v>0.036299999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -875,10 +907,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B14">
-        <v>0.4168</v>
+        <v>0.41689999999999999</v>
       </c>
       <c r="C14">
-        <v>0.063100000000000003</v>
+        <v>0.062100000000000002</v>
       </c>
     </row>
     <row r="15">
@@ -886,10 +918,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B15">
-        <v>-0.38869999999999999</v>
+        <v>-0.38990000000000002</v>
       </c>
       <c r="C15">
-        <v>0.069599999999999995</v>
+        <v>0.065699999999999995</v>
       </c>
     </row>
     <row r="16">
@@ -897,10 +929,10 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B16">
-        <v>0.1671</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="C16">
-        <v>0.087300000000000003</v>
+        <v>0.079100000000000004</v>
       </c>
     </row>
     <row r="17">
@@ -908,7 +940,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="B17">
-        <v>0.66359999999999997</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="C17">
         <v>0.013299999999999999</v>
@@ -919,10 +951,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B18">
-        <v>-0.74350000000000005</v>
+        <v>-0.7419</v>
       </c>
       <c r="C18">
-        <v>0.0172</v>
+        <v>0.016899999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -930,10 +962,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B19">
-        <v>-0.7893</v>
+        <v>-0.78749999999999998</v>
       </c>
       <c r="C19">
-        <v>0.016899999999999998</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="20">
@@ -941,10 +973,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.12670000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="C20">
-        <v>0.0060000000000000001</v>
+        <v>0.0071999999999999998</v>
       </c>
     </row>
     <row r="21">
@@ -952,10 +984,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B21">
-        <v>-0.1542</v>
+        <v>-0.1545</v>
       </c>
       <c r="C21">
-        <v>0.0292</v>
+        <v>0.029600000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -963,10 +995,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B22">
-        <v>0.4163</v>
+        <v>0.41639999999999999</v>
       </c>
       <c r="C22">
-        <v>0.047500000000000001</v>
+        <v>0.049299999999999997</v>
       </c>
     </row>
     <row r="23">
@@ -974,10 +1006,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B23">
-        <v>-0.3886</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="C23">
-        <v>0.0528</v>
+        <v>0.056000000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -985,10 +1017,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B24">
-        <v>0.16500000000000001</v>
+        <v>0.1623</v>
       </c>
       <c r="C24">
-        <v>0.0579</v>
+        <v>0.064199999999999993</v>
       </c>
     </row>
     <row r="25">
@@ -996,10 +1028,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="B25">
-        <v>0.66249999999999998</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="C25">
-        <v>0.0103</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="26">
@@ -1007,10 +1039,10 @@
         <v>0.5</v>
       </c>
       <c r="B26">
-        <v>-0.7419</v>
+        <v>-0.74150000000000005</v>
       </c>
       <c r="C26">
-        <v>0.013100000000000001</v>
+        <v>0.014200000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1018,10 +1050,10 @@
         <v>0.5</v>
       </c>
       <c r="B27">
-        <v>-0.78779999999999994</v>
+        <v>-0.78690000000000004</v>
       </c>
       <c r="C27">
-        <v>0.014</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="28">
@@ -1029,10 +1061,10 @@
         <v>0.5</v>
       </c>
       <c r="B28">
-        <v>0.12690000000000001</v>
+        <v>0.1263</v>
       </c>
       <c r="C28">
-        <v>0.0051000000000000004</v>
+        <v>0.0057000000000000002</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1072,10 @@
         <v>0.5</v>
       </c>
       <c r="B29">
-        <v>-0.15490000000000001</v>
+        <v>-0.15459999999999999</v>
       </c>
       <c r="C29">
-        <v>0.024799999999999999</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="30">
@@ -1051,10 +1083,10 @@
         <v>0.5</v>
       </c>
       <c r="B30">
-        <v>0.4138</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="C30">
-        <v>0.041000000000000002</v>
+        <v>0.039399999999999998</v>
       </c>
     </row>
     <row r="31">
@@ -1062,10 +1094,10 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>-0.39169999999999999</v>
+        <v>-0.38300000000000001</v>
       </c>
       <c r="C31">
-        <v>0.047500000000000001</v>
+        <v>0.047399999999999998</v>
       </c>
     </row>
     <row r="32">
@@ -1073,10 +1105,10 @@
         <v>0.5</v>
       </c>
       <c r="B32">
-        <v>0.17069999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C32">
-        <v>0.0521</v>
+        <v>0.054100000000000002</v>
       </c>
     </row>
     <row r="33">
@@ -1084,10 +1116,10 @@
         <v>0.5</v>
       </c>
       <c r="B33">
-        <v>0.66290000000000004</v>
+        <v>0.66269999999999996</v>
       </c>
       <c r="C33">
-        <v>0.0092999999999999992</v>
+        <v>0.0088999999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1095,10 +1127,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B34">
-        <v>-0.7419</v>
+        <v>-0.74160000000000004</v>
       </c>
       <c r="C34">
-        <v>0.010800000000000001</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="35">
@@ -1106,10 +1138,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B35">
-        <v>-0.78710000000000002</v>
+        <v>-0.78680000000000005</v>
       </c>
       <c r="C35">
-        <v>0.0109</v>
+        <v>0.011900000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1117,10 +1149,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B36">
-        <v>0.1255</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="C36">
-        <v>0.0053</v>
+        <v>0.0047000000000000002</v>
       </c>
     </row>
     <row r="37">
@@ -1128,10 +1160,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B37">
-        <v>-0.15429999999999999</v>
+        <v>-0.15570000000000001</v>
       </c>
       <c r="C37">
-        <v>0.017999999999999999</v>
+        <v>0.021000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1139,10 +1171,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B38">
-        <v>0.4148</v>
+        <v>0.41689999999999999</v>
       </c>
       <c r="C38">
-        <v>0.0339</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="39">
@@ -1150,10 +1182,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B39">
-        <v>-0.38069999999999998</v>
+        <v>-0.38190000000000002</v>
       </c>
       <c r="C39">
-        <v>0.039399999999999998</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="40">
@@ -1161,10 +1193,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B40">
-        <v>0.15959999999999999</v>
+        <v>0.1603</v>
       </c>
       <c r="C40">
-        <v>0.0448</v>
+        <v>0.044499999999999998</v>
       </c>
     </row>
     <row r="41">
@@ -1172,10 +1204,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="B41">
-        <v>0.66239999999999999</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="C41">
-        <v>0.0066</v>
+        <v>0.0077000000000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1183,10 +1215,10 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B42">
-        <v>-0.74139999999999995</v>
+        <v>-0.74170000000000003</v>
       </c>
       <c r="C42">
-        <v>0.0094999999999999998</v>
+        <v>0.0092999999999999992</v>
       </c>
     </row>
     <row r="43">
@@ -1194,10 +1226,10 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B43">
-        <v>-0.78580000000000005</v>
+        <v>-0.78690000000000004</v>
       </c>
       <c r="C43">
-        <v>0.010200000000000001</v>
+        <v>0.0095999999999999992</v>
       </c>
     </row>
     <row r="44">
@@ -1205,10 +1237,10 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B44">
-        <v>0.12690000000000001</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="C44">
-        <v>0.0041999999999999997</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="45">
@@ -1216,10 +1248,10 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B45">
-        <v>-0.15690000000000001</v>
+        <v>-0.15529999999999999</v>
       </c>
       <c r="C45">
-        <v>0.0166</v>
+        <v>0.016299999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1227,10 +1259,10 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B46">
-        <v>0.41449999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
       <c r="C46">
-        <v>0.023599999999999999</v>
+        <v>0.026200000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1238,10 +1270,10 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B47">
-        <v>-0.37369999999999998</v>
+        <v>-0.379</v>
       </c>
       <c r="C47">
-        <v>0.0276</v>
+        <v>0.032800000000000003</v>
       </c>
     </row>
     <row r="48">
@@ -1249,10 +1281,10 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B48">
-        <v>0.15740000000000001</v>
+        <v>0.15809999999999999</v>
       </c>
       <c r="C48">
-        <v>0.030800000000000001</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="49">
@@ -1260,10 +1292,10 @@
         <v>0.69999999999999996</v>
       </c>
       <c r="B49">
-        <v>0.66339999999999999</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="C49">
-        <v>0.0060000000000000001</v>
+        <v>0.0058999999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1271,10 +1303,10 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B50">
-        <v>-0.74260000000000004</v>
+        <v>-0.7419</v>
       </c>
       <c r="C50">
-        <v>0.0061999999999999998</v>
+        <v>0.0070000000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1282,10 +1314,10 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B51">
-        <v>-0.78790000000000004</v>
+        <v>-0.78690000000000004</v>
       </c>
       <c r="C51">
-        <v>0.0064999999999999997</v>
+        <v>0.0071999999999999998</v>
       </c>
     </row>
     <row r="52">
@@ -1296,7 +1328,7 @@
         <v>0.12620000000000001</v>
       </c>
       <c r="C52">
-        <v>0.0030000000000000001</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="53">
@@ -1304,10 +1336,10 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B53">
-        <v>-0.15559999999999999</v>
+        <v>-0.15640000000000001</v>
       </c>
       <c r="C53">
-        <v>0.012</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="54">
@@ -1315,7 +1347,7 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B54">
-        <v>0.41720000000000002</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="C54">
         <v>0.02</v>
@@ -1326,10 +1358,10 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B55">
-        <v>-0.38100000000000001</v>
+        <v>-0.37690000000000001</v>
       </c>
       <c r="C55">
-        <v>0.0258</v>
+        <v>0.024500000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1337,10 +1369,10 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B56">
-        <v>0.15920000000000001</v>
+        <v>0.15709999999999999</v>
       </c>
       <c r="C56">
-        <v>0.029899999999999999</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="57">
@@ -1348,10 +1380,10 @@
         <v>0.80000000000000004</v>
       </c>
       <c r="B57">
-        <v>0.66269999999999996</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="C57">
-        <v>0.0041999999999999997</v>
+        <v>0.0044999999999999997</v>
       </c>
     </row>
     <row r="58">
@@ -1359,10 +1391,10 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B58">
-        <v>-0.74199999999999999</v>
+        <v>-0.74170000000000003</v>
       </c>
       <c r="C58">
-        <v>0.0048999999999999998</v>
+        <v>0.0047000000000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1370,10 +1402,10 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B59">
-        <v>-0.78720000000000001</v>
+        <v>-0.78680000000000005</v>
       </c>
       <c r="C59">
-        <v>0.0050000000000000001</v>
+        <v>0.0048999999999999998</v>
       </c>
     </row>
     <row r="60">
@@ -1392,10 +1424,10 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B61">
-        <v>-0.15559999999999999</v>
+        <v>-0.15640000000000001</v>
       </c>
       <c r="C61">
-        <v>0.0091000000000000004</v>
+        <v>0.0082000000000000007</v>
       </c>
     </row>
     <row r="62">
@@ -1403,10 +1435,10 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B62">
-        <v>0.41489999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="C62">
-        <v>0.012699999999999999</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="63">
@@ -1414,10 +1446,10 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B63">
-        <v>-0.3765</v>
+        <v>-0.37719999999999998</v>
       </c>
       <c r="C63">
-        <v>0.0161</v>
+        <v>0.016199999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -1425,10 +1457,10 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B64">
-        <v>0.15759999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="C64">
-        <v>0.016899999999999998</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="65">
@@ -1436,10 +1468,10 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="B65">
-        <v>0.66310000000000002</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="C65">
-        <v>0.0030999999999999999</v>
+        <v>0.0030000000000000001</v>
       </c>
     </row>
   </sheetData>
